--- a/study03/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/study03/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,18 +6,20 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_spearman_20" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_spearman_24" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_17" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_23" r:id="rId4" sheetId="2"/>
     <sheet name="moderate_spearman_32" r:id="rId5" sheetId="3"/>
-    <sheet name="moderate_spearman_68" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_43" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_61" r:id="rId7" sheetId="5"/>
+    <sheet name="moderate_spearman_72" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="67">
   <si>
-    <t>Correlation information for DiffTheta - Interest/Enjoyment in ont-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -26,7 +28,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>Gains in Skills/Knowledge</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -53,13 +55,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffTh-Int/E</t>
+    <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Interest/Enjoyment in ont-gamified</t>
+    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Interest/Enjoyment in ont-gamified</t>
+    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -80,34 +82,70 @@
     <t>PlayerRole</t>
   </si>
   <si>
-    <t>ont-gamified</t>
+    <t>w/o-gamified</t>
   </si>
   <si>
-    <t>Warriors</t>
+    <t>Grupo11</t>
+  </si>
+  <si>
+    <t>Grupo3</t>
+  </si>
+  <si>
+    <t>Grupo10</t>
+  </si>
+  <si>
+    <t>Grupo9</t>
+  </si>
+  <si>
+    <t>Grupo8</t>
+  </si>
+  <si>
+    <t>Grupo7</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skills/Knowledge - Perceived Choice in Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Perceived Choice</t>
+  </si>
+  <si>
+    <t>GiS/K-PrcvC</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
+  </si>
+  <si>
+    <t>ont-gamified</t>
   </si>
   <si>
     <t>Outlaws</t>
   </si>
   <si>
-    <t>Slayers</t>
+    <t>Vandals</t>
   </si>
   <si>
-    <t>Vandals</t>
+    <t>Grupo1</t>
   </si>
   <si>
     <t>Vikings</t>
   </si>
   <si>
-    <t>Attractive Devils</t>
-  </si>
-  <si>
     <t>Silly Knights</t>
   </si>
   <si>
-    <t>Mercenaries</t>
+    <t>Slayers</t>
   </si>
   <si>
-    <t>Mafia</t>
+    <t>Grupo5</t>
   </si>
   <si>
     <t>Resistance</t>
@@ -116,73 +154,70 @@
     <t>Master</t>
   </si>
   <si>
-    <t>Apprentice</t>
-  </si>
-  <si>
     <t>Social Achiever</t>
   </si>
   <si>
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Interest/Enjoyment in ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Interest/Enjoyment in ont-gamified.Apprentice</t>
+    <t>Pressure/Tension</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Interest/Enjoyment in ont-gamified.Apprentice</t>
+    <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Perceived Choice in Master using the method: spearman</t>
+    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>Perceived Choice</t>
+    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>DffTh-PrcvC</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Perceived Choice in Master</t>
+    <t>Effort/Importance</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Perceived Choice in Master</t>
+    <t>GiS/K-Eff/I</t>
   </si>
   <si>
-    <t>w/o-gamified</t>
+    <t>Data source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Grupo7</t>
+    <t>Data full source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Grupo10</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Attention in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Grupo1</t>
+    <t>Attention</t>
   </si>
   <si>
-    <t>Grupo3</t>
+    <t>GiS/K-Attnt</t>
   </si>
   <si>
-    <t>Grupo9</t>
+    <t>Data source for Gains in Skills/Knowledge - Attention in ont-gamified.Master</t>
   </si>
   <si>
-    <t/>
+    <t>Data full source for Gains in Skills/Knowledge - Attention in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Relevance in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Relevance</t>
   </si>
   <si>
-    <t>DffTh-Rlvnc</t>
+    <t>GiS/K-Rlvnc</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Relevance in Master</t>
+    <t>Data source for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Relevance in Master</t>
+    <t>Data full source for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -190,13 +225,959 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="297">
+  <fonts count="445">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2133,7 +3114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="841">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2791,6 +3772,334 @@
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2848,10 +4157,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.5402359882092135</v>
+        <v>-0.5157894736842106</v>
       </c>
     </row>
     <row r="7">
@@ -2859,10 +4168,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.5402359882092135</v>
+        <v>-0.5157894736842106</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2893,11 +4202,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="51">
-        <v>1.710947035355221E8</v>
+      <c r="B12" t="e" s="51">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-2.3146965676232556</v>
+        <v>-1.903863983490641</v>
       </c>
     </row>
     <row r="13">
@@ -2905,10 +4214,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-2.3146965676232556</v>
-      </c>
-      <c r="C13" t="n" s="52">
-        <v>1.710947035355221E8</v>
+        <v>-1.903863983490641</v>
+      </c>
+      <c r="C13" t="e" s="52">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -2940,10 +4249,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="71">
-        <v>3.5089823585550026E-101</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.03761817797696578</v>
+        <v>0.08607212153838728</v>
       </c>
     </row>
     <row r="19">
@@ -2951,10 +4260,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.03761817797696578</v>
+        <v>0.08607212153838728</v>
       </c>
       <c r="C19" t="n" s="72">
-        <v>3.5089823585550026E-101</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -2992,16 +4301,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.8243624421392322</v>
+        <v>-0.8408029736273056</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.5402359882092135</v>
+        <v>-0.5157894736842106</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>-0.03867662180866248</v>
+        <v>0.0825471136124048</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.03761817797696578</v>
+        <v>0.08607212153838728</v>
       </c>
     </row>
     <row r="25">
@@ -3029,553 +4338,451 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.16957045618326988</v>
+        <v>-0.04986424823584051</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.5136755173037465</v>
+        <v>0.7207230177595974</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>0.056303131700413886</v>
+        <v>-0.022506979959882288</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>0.3072097500789291</v>
+        <v>-0.6853546500580784</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-0.03155426927022684</v>
+        <v>-0.09596501460297455</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>0.3072097500789291</v>
+        <v>0.30539635192697123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>0.1057289325304706</v>
+        <v>-0.04866671807371016</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.5415918102542824</v>
+        <v>1.4693286384659516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>0.1094049881950818</v>
+        <v>-0.02695541966202845</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>-1.4030490834495681</v>
+        <v>-0.07211328311855836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>0.10819335406892379</v>
+        <v>-0.06222144425386064</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>0.5136755173037465</v>
+        <v>1.7947392767601646</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>0.09131641966052921</v>
+        <v>-0.021736265354138248</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>0.5136755173037465</v>
+        <v>0.10947233350060595</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>0.055082843440588405</v>
+        <v>2.558976293568216E-4</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>1.1179968928576578</v>
+        <v>0.30539635192697123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="113">
-        <v>0.1584069386553003</v>
+        <v>0.031221491993197625</v>
       </c>
       <c r="B37" t="n" s="114">
-        <v>-0.5415918102542824</v>
+        <v>0.9236404853068739</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="113">
-        <v>-0.1606129592665753</v>
+        <v>-0.0314904552250829</v>
       </c>
       <c r="B38" t="n" s="114">
-        <v>0.722578751738864</v>
+        <v>0.5118485930252792</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="113">
-        <v>0.07323674174572148</v>
+        <v>0.031221491993197625</v>
       </c>
       <c r="B39" t="n" s="114">
-        <v>-1.1017433431303312</v>
+        <v>-0.9628246630350216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="113">
-        <v>0.013932201703524574</v>
+        <v>-0.07557427164140706</v>
       </c>
       <c r="B40" t="n" s="114">
-        <v>1.2994045801764238</v>
+        <v>1.116048623303157</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="113">
-        <v>-0.023457684006790103</v>
-      </c>
-      <c r="B41" t="n" s="114">
-        <v>1.6363701348851551</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="113">
-        <v>0.05532693638498046</v>
-      </c>
-      <c r="B42" t="n" s="114">
-        <v>1.1179968928576578</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="113">
-        <v>-0.019049212522248785</v>
-      </c>
-      <c r="B43" t="n" s="114">
-        <v>0.5136755173037465</v>
+      <c r="A43" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
+      <c r="A44" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
+      <c r="A45" t="n" s="133">
+        <v>10170.0</v>
+      </c>
+      <c r="B45" t="n" s="134">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C45" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G45" t="n" s="139">
+        <v>-0.04986424823584051</v>
+      </c>
+      <c r="H45" t="n" s="140">
+        <v>0.7207230177595974</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="118">
-        <v>14</v>
+      <c r="A46" t="n" s="133">
+        <v>10183.0</v>
+      </c>
+      <c r="B46" t="n" s="134">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C46" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G46" t="n" s="139">
+        <v>-0.022506979959882288</v>
+      </c>
+      <c r="H46" t="n" s="140">
+        <v>-0.6853546500580784</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s" s="132">
-        <v>4</v>
+      <c r="A47" t="n" s="133">
+        <v>10184.0</v>
+      </c>
+      <c r="B47" t="n" s="134">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C47" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G47" t="n" s="139">
+        <v>-0.09596501460297455</v>
+      </c>
+      <c r="H47" t="n" s="140">
+        <v>0.30539635192697123</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10175.0</v>
+        <v>10185.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>1.03107E7</v>
+        <v>1.027696E7</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s" s="137">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>0.16957045618326988</v>
+        <v>-0.04866671807371016</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>0.5136755173037465</v>
+        <v>1.4693286384659516</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="133">
-        <v>10176.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B49" t="n" s="134">
-        <v>1.0276949E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C49" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="136">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s" s="137">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="n" s="139">
-        <v>0.056303131700413886</v>
+        <v>-0.02695541966202845</v>
       </c>
       <c r="H49" t="n" s="140">
-        <v>0.3072097500789291</v>
+        <v>-0.07211328311855836</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="133">
-        <v>10186.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B50" t="n" s="134">
-        <v>1.0310551E7</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C50" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="136">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s" s="137">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G50" t="n" s="139">
-        <v>-0.03155426927022684</v>
+        <v>-0.06222144425386064</v>
       </c>
       <c r="H50" t="n" s="140">
-        <v>0.3072097500789291</v>
+        <v>1.7947392767601646</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="133">
-        <v>10188.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B51" t="n" s="134">
-        <v>1.0276995E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C51" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D51" t="s" s="136">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s" s="137">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s" s="138">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G51" t="n" s="139">
-        <v>0.1057289325304706</v>
+        <v>-0.021736265354138248</v>
       </c>
       <c r="H51" t="n" s="140">
-        <v>-0.5415918102542824</v>
+        <v>0.10947233350060595</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="133">
-        <v>10189.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B52" t="n" s="134">
-        <v>9363926.0</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C52" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D52" t="s" s="136">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s" s="137">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G52" t="n" s="139">
-        <v>0.1094049881950818</v>
+        <v>2.558976293568216E-4</v>
       </c>
       <c r="H52" t="n" s="140">
-        <v>-1.4030490834495681</v>
+        <v>0.30539635192697123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="133">
-        <v>10192.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B53" t="n" s="134">
-        <v>1.0276682E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C53" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D53" t="s" s="136">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s" s="137">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G53" t="n" s="139">
-        <v>0.10819335406892379</v>
+        <v>0.031221491993197625</v>
       </c>
       <c r="H53" t="n" s="140">
-        <v>0.5136755173037465</v>
+        <v>0.9236404853068739</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="133">
-        <v>10198.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B54" t="n" s="134">
-        <v>1.0310888E7</v>
+        <v>9842913.0</v>
       </c>
       <c r="C54" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D54" t="s" s="136">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s" s="137">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G54" t="n" s="139">
-        <v>0.09131641966052921</v>
+        <v>-0.0314904552250829</v>
       </c>
       <c r="H54" t="n" s="140">
-        <v>0.5136755173037465</v>
+        <v>0.5118485930252792</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="133">
-        <v>10200.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B55" t="n" s="134">
-        <v>9795272.0</v>
+        <v>9760151.0</v>
       </c>
       <c r="C55" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D55" t="s" s="136">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s" s="137">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G55" t="n" s="139">
-        <v>0.055082843440588405</v>
+        <v>0.031221491993197625</v>
       </c>
       <c r="H55" t="n" s="140">
-        <v>1.1179968928576578</v>
+        <v>-0.9628246630350216</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="133">
-        <v>10202.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B56" t="n" s="134">
-        <v>1.0277036E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C56" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D56" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s" s="137">
         <v>28</v>
       </c>
-      <c r="E56" t="s" s="137">
-        <v>33</v>
-      </c>
       <c r="F56" t="s" s="138">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G56" t="n" s="139">
-        <v>0.1584069386553003</v>
+        <v>-0.07557427164140706</v>
       </c>
       <c r="H56" t="n" s="140">
-        <v>-0.5415918102542824</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="133">
-        <v>10203.0</v>
-      </c>
-      <c r="B57" t="n" s="134">
-        <v>9921470.0</v>
-      </c>
-      <c r="C57" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="136">
-        <v>29</v>
-      </c>
-      <c r="E57" t="s" s="137">
-        <v>33</v>
-      </c>
-      <c r="F57" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G57" t="n" s="139">
-        <v>-0.1606129592665753</v>
-      </c>
-      <c r="H57" t="n" s="140">
-        <v>0.722578751738864</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="133">
-        <v>10209.0</v>
-      </c>
-      <c r="B58" t="n" s="134">
-        <v>1.0262669E7</v>
-      </c>
-      <c r="C58" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="136">
-        <v>30</v>
-      </c>
-      <c r="E58" t="s" s="137">
-        <v>33</v>
-      </c>
-      <c r="F58" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G58" t="n" s="139">
-        <v>0.07323674174572148</v>
-      </c>
-      <c r="H58" t="n" s="140">
-        <v>-1.1017433431303312</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="133">
-        <v>10216.0</v>
-      </c>
-      <c r="B59" t="n" s="134">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C59" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E59" t="s" s="137">
-        <v>32</v>
-      </c>
-      <c r="F59" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G59" t="n" s="139">
-        <v>0.013932201703524574</v>
-      </c>
-      <c r="H59" t="n" s="140">
-        <v>1.2994045801764238</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="133">
-        <v>10223.0</v>
-      </c>
-      <c r="B60" t="n" s="134">
-        <v>9795185.0</v>
-      </c>
-      <c r="C60" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E60" t="s" s="137">
-        <v>32</v>
-      </c>
-      <c r="F60" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G60" t="n" s="139">
-        <v>-0.023457684006790103</v>
-      </c>
-      <c r="H60" t="n" s="140">
-        <v>1.6363701348851551</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="133">
-        <v>10230.0</v>
-      </c>
-      <c r="B61" t="n" s="134">
-        <v>1.0351992E7</v>
-      </c>
-      <c r="C61" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="136">
-        <v>31</v>
-      </c>
-      <c r="E61" t="s" s="137">
-        <v>32</v>
-      </c>
-      <c r="F61" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G61" t="n" s="139">
-        <v>0.05532693638498046</v>
-      </c>
-      <c r="H61" t="n" s="140">
-        <v>1.1179968928576578</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="133">
-        <v>10237.0</v>
-      </c>
-      <c r="B62" t="n" s="134">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C62" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E62" t="s" s="137">
-        <v>33</v>
-      </c>
-      <c r="F62" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="G62" t="n" s="139">
-        <v>-0.019049212522248785</v>
-      </c>
-      <c r="H62" t="n" s="140">
-        <v>0.5136755173037465</v>
+        <v>1.116048623303157</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +4811,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -3628,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -3639,15 +4846,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>-0.5424508028966484</v>
+        <v>0.5536036669087605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>-0.5424508028966484</v>
+        <v>0.5536036669087605</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -3674,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -3685,15 +4892,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>-1.708381331917526</v>
+        <v>2.1021733693031894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>-1.708381331917526</v>
+        <v>2.1021733693031894</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -3720,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -3731,15 +4938,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.13131862525868876</v>
+        <v>0.06185087059561513</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.13131862525868876</v>
+        <v>0.06185087059561513</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>-0.0</v>
@@ -3777,19 +4984,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.8870204271534432</v>
+        <v>-0.02974991613675165</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>-0.5424508028966484</v>
+        <v>0.5536036669087605</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.19018607714658922</v>
+        <v>0.8556524784718924</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.13131862525868876</v>
+        <v>0.06185087059561513</v>
       </c>
     </row>
     <row r="25">
@@ -3804,7 +5011,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3812,206 +5019,152 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>-0.03155426927022684</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>0.3072097500789291</v>
+        <v>0.08661004612576251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>0.1094049881950818</v>
+        <v>-0.13718543611105669</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>-1.4030490834495681</v>
+        <v>-0.571541021942381</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>0.10819335406892379</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>0.5136755173037465</v>
+        <v>-1.2606166596974884</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>0.09131641966052921</v>
+        <v>0.12005763951268636</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>0.5136755173037465</v>
+        <v>1.6300613239310544</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>0.055082843440588405</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>1.1179968928576578</v>
+        <v>-0.7416233807808368</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="253">
-        <v>0.1584069386553003</v>
+        <v>-0.0767619167297687</v>
       </c>
       <c r="B34" t="n" s="254">
-        <v>-0.5415918102542824</v>
+        <v>0.9510779812680862</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="253">
-        <v>-0.1606129592665753</v>
+        <v>0.00926342200375345</v>
       </c>
       <c r="B35" t="n" s="254">
-        <v>0.722578751738864</v>
+        <v>1.2580230179601286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="253">
-        <v>0.07323674174572148</v>
+        <v>-0.01644788860766827</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>-1.1017433431303312</v>
+        <v>-0.7416233807808368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="253">
-        <v>-0.019049212522248785</v>
+        <v>-0.024982259368366677</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>0.5136755173037465</v>
+        <v>0.08661004612576251</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
+      <c r="A38" t="n" s="253">
+        <v>-0.06899602363501679</v>
+      </c>
+      <c r="B38" t="n" s="254">
+        <v>0.3851041133633959</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="253">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="B39" t="n" s="254">
+        <v>-0.07137047387597562</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="253">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="B40" t="n" s="254">
+        <v>1.255774933272715</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="258">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="272">
+    <row r="43">
+      <c r="A43" t="s" s="258">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="272">
         <v>15</v>
       </c>
-      <c r="B41" t="s" s="272">
+      <c r="B44" t="s" s="272">
         <v>16</v>
       </c>
-      <c r="C41" t="s" s="272">
+      <c r="C44" t="s" s="272">
         <v>17</v>
       </c>
-      <c r="D41" t="s" s="272">
+      <c r="D44" t="s" s="272">
         <v>18</v>
       </c>
-      <c r="E41" t="s" s="272">
+      <c r="E44" t="s" s="272">
         <v>19</v>
       </c>
-      <c r="F41" t="s" s="272">
+      <c r="F44" t="s" s="272">
         <v>20</v>
       </c>
-      <c r="G41" t="s" s="272">
+      <c r="G44" t="s" s="272">
         <v>3</v>
       </c>
-      <c r="H41" t="s" s="272">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="273">
-        <v>10186.0</v>
-      </c>
-      <c r="B42" t="n" s="274">
-        <v>1.0310551E7</v>
-      </c>
-      <c r="C42" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s" s="276">
-        <v>24</v>
-      </c>
-      <c r="E42" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F42" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G42" t="n" s="279">
-        <v>-0.03155426927022684</v>
-      </c>
-      <c r="H42" t="n" s="280">
-        <v>0.3072097500789291</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="273">
-        <v>10189.0</v>
-      </c>
-      <c r="B43" t="n" s="274">
-        <v>9363926.0</v>
-      </c>
-      <c r="C43" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s" s="276">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F43" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G43" t="n" s="279">
-        <v>0.1094049881950818</v>
-      </c>
-      <c r="H43" t="n" s="280">
-        <v>-1.4030490834495681</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="273">
-        <v>10192.0</v>
-      </c>
-      <c r="B44" t="n" s="274">
-        <v>1.0276682E7</v>
-      </c>
-      <c r="C44" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="276">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F44" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G44" t="n" s="279">
-        <v>0.10819335406892379</v>
-      </c>
-      <c r="H44" t="n" s="280">
-        <v>0.5136755173037465</v>
+      <c r="H44" t="s" s="272">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="273">
-        <v>10198.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B45" t="n" s="274">
-        <v>1.0310888E7</v>
+        <v>1.0276852E7</v>
       </c>
       <c r="C45" t="s" s="275">
         <v>21</v>
@@ -4020,146 +5173,302 @@
         <v>27</v>
       </c>
       <c r="E45" t="s" s="277">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s" s="278">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G45" t="n" s="279">
-        <v>0.09131641966052921</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="H45" t="n" s="280">
-        <v>0.5136755173037465</v>
+        <v>0.08661004612576251</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="273">
-        <v>10200.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B46" t="n" s="274">
-        <v>9795272.0</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C46" t="s" s="275">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s" s="276">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s" s="277">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s" s="278">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G46" t="n" s="279">
-        <v>0.055082843440588405</v>
+        <v>-0.13718543611105669</v>
       </c>
       <c r="H46" t="n" s="280">
-        <v>1.1179968928576578</v>
+        <v>-0.571541021942381</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="273">
-        <v>10202.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B47" t="n" s="274">
-        <v>1.0277036E7</v>
+        <v>1.0310759E7</v>
       </c>
       <c r="C47" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D47" t="s" s="276">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s" s="277">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s" s="278">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G47" t="n" s="279">
-        <v>0.1584069386553003</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="H47" t="n" s="280">
-        <v>-0.5415918102542824</v>
+        <v>-1.2606166596974884</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="273">
-        <v>10203.0</v>
+        <v>10188.0</v>
       </c>
       <c r="B48" t="n" s="274">
-        <v>9921470.0</v>
+        <v>1.0276995E7</v>
       </c>
       <c r="C48" t="s" s="275">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s" s="276">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s" s="277">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s" s="278">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G48" t="n" s="279">
-        <v>-0.1606129592665753</v>
+        <v>0.12005763951268636</v>
       </c>
       <c r="H48" t="n" s="280">
-        <v>0.722578751738864</v>
+        <v>1.6300613239310544</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="273">
-        <v>10209.0</v>
+        <v>10191.0</v>
       </c>
       <c r="B49" t="n" s="274">
-        <v>1.0262669E7</v>
+        <v>1.0276981E7</v>
       </c>
       <c r="C49" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="276">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s" s="277">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s" s="278">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="n" s="279">
-        <v>0.07323674174572148</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="H49" t="n" s="280">
-        <v>-1.1017433431303312</v>
+        <v>-0.7416233807808368</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="273">
-        <v>10237.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B50" t="n" s="274">
-        <v>1.0377688E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C50" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G50" t="n" s="279">
+        <v>-0.0767619167297687</v>
+      </c>
+      <c r="H50" t="n" s="280">
+        <v>0.9510779812680862</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="273">
+        <v>10216.0</v>
+      </c>
+      <c r="B51" t="n" s="274">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C51" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s" s="276">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G51" t="n" s="279">
+        <v>0.00926342200375345</v>
+      </c>
+      <c r="H51" t="n" s="280">
+        <v>1.2580230179601286</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="273">
+        <v>10219.0</v>
+      </c>
+      <c r="B52" t="n" s="274">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C52" t="s" s="275">
         <v>21</v>
       </c>
-      <c r="D50" t="s" s="276">
+      <c r="D52" t="s" s="276">
         <v>23</v>
       </c>
-      <c r="E50" t="s" s="277">
-        <v>33</v>
-      </c>
-      <c r="F50" t="s" s="278">
-        <v>34</v>
-      </c>
-      <c r="G50" t="n" s="279">
-        <v>-0.019049212522248785</v>
-      </c>
-      <c r="H50" t="n" s="280">
-        <v>0.5136755173037465</v>
+      <c r="E52" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s" s="278">
+        <v>29</v>
+      </c>
+      <c r="G52" t="n" s="279">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="H52" t="n" s="280">
+        <v>-0.7416233807808368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="273">
+        <v>10223.0</v>
+      </c>
+      <c r="B53" t="n" s="274">
+        <v>9795185.0</v>
+      </c>
+      <c r="C53" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s" s="276">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G53" t="n" s="279">
+        <v>-0.024982259368366677</v>
+      </c>
+      <c r="H53" t="n" s="280">
+        <v>0.08661004612576251</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="273">
+        <v>10227.0</v>
+      </c>
+      <c r="B54" t="n" s="274">
+        <v>9274382.0</v>
+      </c>
+      <c r="C54" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="276">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="278">
+        <v>29</v>
+      </c>
+      <c r="G54" t="n" s="279">
+        <v>-0.06899602363501679</v>
+      </c>
+      <c r="H54" t="n" s="280">
+        <v>0.3851041133633959</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="273">
+        <v>10230.0</v>
+      </c>
+      <c r="B55" t="n" s="274">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C55" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s" s="276">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G55" t="n" s="279">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="H55" t="n" s="280">
+        <v>-0.07137047387597562</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="273">
+        <v>10231.0</v>
+      </c>
+      <c r="B56" t="n" s="274">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C56" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s" s="278">
+        <v>29</v>
+      </c>
+      <c r="G56" t="n" s="279">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="H56" t="n" s="280">
+        <v>1.255774933272715</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +5497,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -4212,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -4223,18 +5532,18 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.6529748439174291</v>
+        <v>-0.5822356954908109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.6529748439174291</v>
+        <v>-0.5822356954908109</v>
       </c>
       <c r="C7" t="n" s="312">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4258,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -4269,18 +5578,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>2.5864500981762353</v>
+        <v>-2.2646316561093904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>2.5864500981762353</v>
-      </c>
-      <c r="C13" t="e" s="332">
-        <v>#DIV/0!</v>
+        <v>-2.2646316561093904</v>
+      </c>
+      <c r="C13" t="n" s="332">
+        <v>2.1221686142647797E8</v>
       </c>
     </row>
     <row r="14">
@@ -4304,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -4315,18 +5624,18 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.029384075069147163</v>
+        <v>0.046997299406685594</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.029384075069147163</v>
+        <v>0.046997299406685594</v>
       </c>
       <c r="C19" t="n" s="352">
-        <v>-0.0</v>
+        <v>1.3283169408471054E-79</v>
       </c>
     </row>
     <row r="20">
@@ -4361,19 +5670,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>0.08729264805659627</v>
+        <v>-0.8665748024044821</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.6529748439174291</v>
+        <v>-0.5822356954908109</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.900227701894208</v>
+        <v>-0.012516375314552583</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.029384075069147163</v>
+        <v>0.046997299406685594</v>
       </c>
     </row>
     <row r="25">
@@ -4388,7 +5697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4396,100 +5705,103 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>-0.04972506425419933</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>0.08620120011873872</v>
+        <v>0.2743906651245185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>0.16957045618326988</v>
+        <v>-0.13718543611105669</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>2.180740265602426</v>
+        <v>0.6739289455131704</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>0.056303131700413886</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>-0.5717912105876058</v>
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>-0.09871476844150755</v>
+        <v>0.12005763951268636</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>-1.2606477371317875</v>
+        <v>-1.5713683015865159</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>0.1057289325304706</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>1.6295190222672595</v>
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>-0.10791832418840941</v>
+        <v>-0.0767619167297687</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>-0.7418240890021817</v>
+        <v>-0.34516387181251634</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="393">
-        <v>0.013932201703524574</v>
+        <v>0.00926342200375345</v>
       </c>
       <c r="B35" t="n" s="394">
-        <v>1.2574956494586347</v>
+        <v>-1.5713683015865159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="393">
-        <v>-0.04705566070438302</v>
+        <v>-0.01644788860766827</v>
       </c>
       <c r="B36" t="n" s="394">
-        <v>-0.7418240890021817</v>
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="393">
-        <v>-0.023457684006790103</v>
+        <v>-0.024982259368366677</v>
       </c>
       <c r="B37" t="n" s="394">
-        <v>0.08620120011873872</v>
+        <v>0.09842018285070941</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="393">
-        <v>0.05532693638498046</v>
+        <v>-0.06899602363501679</v>
       </c>
       <c r="B38" t="n" s="394">
-        <v>-0.07174789567103464</v>
+        <v>0.21805805010936075</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="393">
-        <v>-0.04935925715204929</v>
+        <v>-0.16159606382871694</v>
       </c>
       <c r="B39" t="n" s="394">
-        <v>1.2550141453654482</v>
+        <v>0.34930127604675565</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
+      <c r="A40" t="n" s="393">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="B40" t="n" s="394">
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="41">
@@ -4498,86 +5810,65 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="398">
-        <v>43</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="412">
+      <c r="A43" t="s" s="398">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="412">
         <v>15</v>
       </c>
-      <c r="B43" t="s" s="412">
+      <c r="B44" t="s" s="412">
         <v>16</v>
       </c>
-      <c r="C43" t="s" s="412">
+      <c r="C44" t="s" s="412">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="412">
+      <c r="D44" t="s" s="412">
         <v>18</v>
       </c>
-      <c r="E43" t="s" s="412">
+      <c r="E44" t="s" s="412">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="412">
+      <c r="F44" t="s" s="412">
         <v>20</v>
       </c>
-      <c r="G43" t="s" s="412">
+      <c r="G44" t="s" s="412">
         <v>3</v>
       </c>
-      <c r="H43" t="s" s="412">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="413">
-        <v>10174.0</v>
-      </c>
-      <c r="B44" t="n" s="414">
-        <v>1.0276852E7</v>
-      </c>
-      <c r="C44" t="s" s="415">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s" s="416">
-        <v>45</v>
-      </c>
-      <c r="E44" t="s" s="417">
-        <v>32</v>
-      </c>
-      <c r="F44" t="s" s="418">
-        <v>50</v>
-      </c>
-      <c r="G44" t="n" s="419">
-        <v>-0.04972506425419933</v>
-      </c>
-      <c r="H44" t="n" s="420">
-        <v>0.08620120011873872</v>
+      <c r="H44" t="s" s="412">
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="413">
-        <v>10175.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B45" t="n" s="414">
-        <v>1.03107E7</v>
+        <v>1.0276852E7</v>
       </c>
       <c r="C45" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D45" t="s" s="416">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s" s="417">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s" s="418">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G45" t="n" s="419">
-        <v>0.16957045618326988</v>
+        <v>-0.06419279982804033</v>
       </c>
       <c r="H45" t="n" s="420">
-        <v>2.180740265602426</v>
+        <v>0.2743906651245185</v>
       </c>
     </row>
     <row r="46">
@@ -4588,22 +5879,22 @@
         <v>1.0276949E7</v>
       </c>
       <c r="C46" t="s" s="415">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s" s="416">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s" s="417">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s" s="418">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G46" t="n" s="419">
-        <v>0.056303131700413886</v>
+        <v>-0.13718543611105669</v>
       </c>
       <c r="H46" t="n" s="420">
-        <v>-0.5717912105876058</v>
+        <v>0.6739289455131704</v>
       </c>
     </row>
     <row r="47">
@@ -4614,22 +5905,22 @@
         <v>1.0310759E7</v>
       </c>
       <c r="C47" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="416">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s" s="417">
         <v>44</v>
       </c>
-      <c r="D47" t="s" s="416">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s" s="417">
-        <v>32</v>
-      </c>
       <c r="F47" t="s" s="418">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G47" t="n" s="419">
-        <v>-0.09871476844150755</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="H47" t="n" s="420">
-        <v>-1.2606477371317875</v>
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="48">
@@ -4640,22 +5931,22 @@
         <v>1.0276995E7</v>
       </c>
       <c r="C48" t="s" s="415">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s" s="416">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s" s="417">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s" s="418">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G48" t="n" s="419">
-        <v>0.1057289325304706</v>
+        <v>0.12005763951268636</v>
       </c>
       <c r="H48" t="n" s="420">
-        <v>1.6295190222672595</v>
+        <v>-1.5713683015865159</v>
       </c>
     </row>
     <row r="49">
@@ -4666,152 +5957,204 @@
         <v>1.0276981E7</v>
       </c>
       <c r="C49" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="416">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s" s="417">
         <v>44</v>
       </c>
-      <c r="D49" t="s" s="416">
-        <v>47</v>
-      </c>
-      <c r="E49" t="s" s="417">
-        <v>32</v>
-      </c>
       <c r="F49" t="s" s="418">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G49" t="n" s="419">
-        <v>-0.10791832418840941</v>
+        <v>-0.12975245830274829</v>
       </c>
       <c r="H49" t="n" s="420">
-        <v>-0.7418240890021817</v>
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="413">
-        <v>10216.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B50" t="n" s="414">
-        <v>1.027672E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C50" t="s" s="415">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s" s="416">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s" s="417">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s" s="418">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G50" t="n" s="419">
-        <v>0.013932201703524574</v>
+        <v>-0.0767619167297687</v>
       </c>
       <c r="H50" t="n" s="420">
-        <v>1.2574956494586347</v>
+        <v>-0.34516387181251634</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="413">
-        <v>10219.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B51" t="n" s="414">
-        <v>1.0276831E7</v>
+        <v>1.027672E7</v>
       </c>
       <c r="C51" t="s" s="415">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s" s="416">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s" s="417">
         <v>44</v>
       </c>
-      <c r="D51" t="s" s="416">
-        <v>48</v>
-      </c>
-      <c r="E51" t="s" s="417">
-        <v>32</v>
-      </c>
       <c r="F51" t="s" s="418">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G51" t="n" s="419">
-        <v>-0.04705566070438302</v>
+        <v>0.00926342200375345</v>
       </c>
       <c r="H51" t="n" s="420">
-        <v>-0.7418240890021817</v>
+        <v>-1.5713683015865159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="413">
-        <v>10223.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B52" t="n" s="414">
-        <v>9795185.0</v>
+        <v>1.0276831E7</v>
       </c>
       <c r="C52" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D52" t="s" s="416">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s" s="417">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s" s="418">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G52" t="n" s="419">
-        <v>-0.023457684006790103</v>
+        <v>-0.01644788860766827</v>
       </c>
       <c r="H52" t="n" s="420">
-        <v>0.08620120011873872</v>
+        <v>-1.2168952560366875</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="413">
-        <v>10230.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B53" t="n" s="414">
-        <v>1.0351992E7</v>
+        <v>9795185.0</v>
       </c>
       <c r="C53" t="s" s="415">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s" s="416">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s" s="417">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s" s="418">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G53" t="n" s="419">
-        <v>0.05532693638498046</v>
+        <v>-0.024982259368366677</v>
       </c>
       <c r="H53" t="n" s="420">
-        <v>-0.07174789567103464</v>
+        <v>0.09842018285070941</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="413">
+        <v>10227.0</v>
+      </c>
+      <c r="B54" t="n" s="414">
+        <v>9274382.0</v>
+      </c>
+      <c r="C54" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="416">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G54" t="n" s="419">
+        <v>-0.06899602363501679</v>
+      </c>
+      <c r="H54" t="n" s="420">
+        <v>0.21805805010936075</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="413">
+        <v>10230.0</v>
+      </c>
+      <c r="B55" t="n" s="414">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C55" t="s" s="415">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s" s="416">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G55" t="n" s="419">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="H55" t="n" s="420">
+        <v>0.34930127604675565</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="413">
         <v>10231.0</v>
       </c>
-      <c r="B54" t="n" s="414">
+      <c r="B56" t="n" s="414">
         <v>1.0276911E7</v>
       </c>
-      <c r="C54" t="s" s="415">
+      <c r="C56" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="416">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s" s="417">
         <v>44</v>
       </c>
-      <c r="D54" t="s" s="416">
-        <v>49</v>
-      </c>
-      <c r="E54" t="s" s="417">
-        <v>32</v>
-      </c>
-      <c r="F54" t="s" s="418">
-        <v>50</v>
-      </c>
-      <c r="G54" t="n" s="419">
-        <v>-0.04935925715204929</v>
-      </c>
-      <c r="H54" t="n" s="420">
-        <v>1.2550141453654482</v>
+      <c r="F56" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G56" t="n" s="419">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="H56" t="n" s="420">
+        <v>-1.2168952560366875</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +6183,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="422">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -4864,7 +6207,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="450">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -4875,18 +6218,18 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>0.5102518932875898</v>
+        <v>0.5797710356524485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="446">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>0.5102518932875898</v>
+        <v>0.5797710356524485</v>
       </c>
       <c r="C7" t="n" s="452">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4910,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="470">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -4921,18 +6264,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>1.7798967180318293</v>
+        <v>1.4231361339296404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="466">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>1.7798967180318293</v>
-      </c>
-      <c r="C13" t="e" s="472">
-        <v>#DIV/0!</v>
+        <v>1.4231361339296404</v>
+      </c>
+      <c r="C13" t="n" s="472">
+        <v>1.3421772799999999E8</v>
       </c>
     </row>
     <row r="14">
@@ -4956,7 +6299,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="490">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -4967,18 +6310,18 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.10879394857540155</v>
+        <v>0.22778395671501586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="486">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.10879394857540155</v>
+        <v>0.22778395671501586</v>
       </c>
       <c r="C19" t="n" s="492">
-        <v>-0.0</v>
+        <v>1.8488927466117675E-32</v>
       </c>
     </row>
     <row r="20">
@@ -5013,19 +6356,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>-0.1291562011142038</v>
+        <v>-0.4377693615754969</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>0.5102518932875898</v>
+        <v>0.5797710356524485</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>0.8499637464306786</v>
+        <v>0.9461500532499552</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.10879394857540155</v>
+        <v>0.22778395671501586</v>
       </c>
     </row>
     <row r="25">
@@ -5040,7 +6383,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -5048,422 +6391,1216 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="532">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>-0.04972506425419933</v>
+        <v>-0.13718543611105669</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>-0.7610013582586588</v>
+        <v>-1.0730990232837905</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>0.16957045618326988</v>
+        <v>0.12005763951268636</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>1.0738015345492409</v>
+        <v>0.02364444570025992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>0.056303131700413886</v>
+        <v>-0.0767619167297687</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>-0.40424579987926507</v>
+        <v>-0.48050764026194936</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>-0.09871476844150755</v>
+        <v>0.00926342200375345</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>0.37452986722275244</v>
+        <v>0.523235550734752</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="533">
-        <v>0.1057289325304706</v>
+        <v>-0.024982259368366677</v>
       </c>
       <c r="B33" t="n" s="534">
-        <v>1.3365425573537562</v>
+        <v>-0.48050764026194936</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="533">
-        <v>-0.10791832418840941</v>
+        <v>-0.16159606382871694</v>
       </c>
       <c r="B34" t="n" s="534">
-        <v>-0.2373747866878843</v>
+        <v>-0.2220076002594681</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="533">
-        <v>0.013932201703524574</v>
-      </c>
-      <c r="B35" t="n" s="534">
-        <v>0.8667370141964829</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="533">
-        <v>-0.04705566070438302</v>
-      </c>
-      <c r="B36" t="n" s="534">
-        <v>-0.7610013582586588</v>
+      <c r="A36" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="533">
-        <v>-0.023457684006790103</v>
-      </c>
-      <c r="B37" t="n" s="534">
-        <v>0.22520313271464246</v>
+      <c r="A37" t="s" s="538">
+        <v>56</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="533">
-        <v>0.05532693638498046</v>
-      </c>
-      <c r="B38" t="n" s="534">
-        <v>0.07543408121130224</v>
+      <c r="A38" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="552">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="552">
+        <v>53</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="533">
-        <v>-0.04935925715204929</v>
-      </c>
-      <c r="B39" t="n" s="534">
-        <v>-0.0779524653014125</v>
+      <c r="A39" t="n" s="553">
+        <v>10176.0</v>
+      </c>
+      <c r="B39" t="n" s="554">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C39" t="s" s="555">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s" s="556">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G39" t="n" s="559">
+        <v>-0.13718543611105669</v>
+      </c>
+      <c r="H39" t="n" s="560">
+        <v>-1.0730990232837905</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
+      <c r="A40" t="n" s="553">
+        <v>10188.0</v>
+      </c>
+      <c r="B40" t="n" s="554">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C40" t="s" s="555">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s" s="556">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="558">
+        <v>46</v>
+      </c>
+      <c r="G40" t="n" s="559">
+        <v>0.12005763951268636</v>
+      </c>
+      <c r="H40" t="n" s="560">
+        <v>0.02364444570025992</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>1</v>
+      <c r="A41" t="n" s="553">
+        <v>10215.0</v>
+      </c>
+      <c r="B41" t="n" s="554">
+        <v>9285227.0</v>
+      </c>
+      <c r="C41" t="s" s="555">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s" s="556">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G41" t="n" s="559">
+        <v>-0.0767619167297687</v>
+      </c>
+      <c r="H41" t="n" s="560">
+        <v>-0.48050764026194936</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="538">
-        <v>55</v>
+      <c r="A42" t="n" s="553">
+        <v>10216.0</v>
+      </c>
+      <c r="B42" t="n" s="554">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C42" t="s" s="555">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s" s="556">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G42" t="n" s="559">
+        <v>0.00926342200375345</v>
+      </c>
+      <c r="H42" t="n" s="560">
+        <v>0.523235550734752</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="552">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s" s="552">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s" s="552">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s" s="552">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s" s="552">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s" s="552">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s" s="552">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s" s="552">
-        <v>52</v>
+      <c r="A43" t="n" s="553">
+        <v>10223.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>9795185.0</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G43" t="n" s="559">
+        <v>-0.024982259368366677</v>
+      </c>
+      <c r="H43" t="n" s="560">
+        <v>-0.48050764026194936</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="553">
+        <v>10230.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C44" t="s" s="555">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s" s="556">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G44" t="n" s="559">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>-0.2220076002594681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="562">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="590">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="590">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="586">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="591">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="592">
+        <v>-0.6377481392176934</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="586">
+        <v>58</v>
+      </c>
+      <c r="B7" t="n" s="591">
+        <v>-0.6377481392176934</v>
+      </c>
+      <c r="C7" t="n" s="592">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="610">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="610">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="606">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="612">
+        <v>-1.6559618448889595</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="606">
+        <v>58</v>
+      </c>
+      <c r="B13" t="n" s="611">
+        <v>-1.6559618448889595</v>
+      </c>
+      <c r="C13" t="n" s="612">
+        <v>1.3421772799999999E8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="630">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="630">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="626">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="631">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="632">
+        <v>0.1730711102412597</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="626">
+        <v>58</v>
+      </c>
+      <c r="B19" t="n" s="631">
+        <v>0.1730711102412597</v>
+      </c>
+      <c r="C19" t="n" s="632">
+        <v>1.8488927466117675E-32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="650">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="650">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="650">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="646">
+        <v>59</v>
+      </c>
+      <c r="B24" t="n" s="651">
+        <v>-0.9550187462523156</v>
+      </c>
+      <c r="C24" t="n" s="652">
+        <v>-0.6377481392176934</v>
+      </c>
+      <c r="D24" t="n" s="653">
+        <v>0.3602880211901565</v>
+      </c>
+      <c r="E24" t="n" s="654">
+        <v>0.1730711102412597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="658">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="672">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="672">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="673">
+        <v>-0.13718543611105669</v>
+      </c>
+      <c r="B29" t="n" s="674">
+        <v>0.47008248053891766</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="673">
+        <v>0.12005763951268636</v>
+      </c>
+      <c r="B30" t="n" s="674">
+        <v>-0.46507002030108524</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="673">
+        <v>-0.0767619167297687</v>
+      </c>
+      <c r="B31" t="n" s="674">
+        <v>-0.6885839593980944</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="673">
+        <v>0.00926342200375345</v>
+      </c>
+      <c r="B32" t="n" s="674">
+        <v>-0.06793102973322376</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="673">
+        <v>-0.024982259368366677</v>
+      </c>
+      <c r="B33" t="n" s="674">
+        <v>-0.06793102973322376</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="673">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="B34" t="n" s="674">
+        <v>0.8435005792766319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="678">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="692">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="692">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="693">
+        <v>10176.0</v>
+      </c>
+      <c r="B39" t="n" s="694">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C39" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s" s="696">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G39" t="n" s="699">
+        <v>-0.13718543611105669</v>
+      </c>
+      <c r="H39" t="n" s="700">
+        <v>0.47008248053891766</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="693">
+        <v>10188.0</v>
+      </c>
+      <c r="B40" t="n" s="694">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C40" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s" s="696">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="698">
+        <v>46</v>
+      </c>
+      <c r="G40" t="n" s="699">
+        <v>0.12005763951268636</v>
+      </c>
+      <c r="H40" t="n" s="700">
+        <v>-0.46507002030108524</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="693">
+        <v>10215.0</v>
+      </c>
+      <c r="B41" t="n" s="694">
+        <v>9285227.0</v>
+      </c>
+      <c r="C41" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s" s="696">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G41" t="n" s="699">
+        <v>-0.0767619167297687</v>
+      </c>
+      <c r="H41" t="n" s="700">
+        <v>-0.6885839593980944</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="693">
+        <v>10216.0</v>
+      </c>
+      <c r="B42" t="n" s="694">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C42" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s" s="696">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G42" t="n" s="699">
+        <v>0.00926342200375345</v>
+      </c>
+      <c r="H42" t="n" s="700">
+        <v>-0.06793102973322376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="693">
+        <v>10223.0</v>
+      </c>
+      <c r="B43" t="n" s="694">
+        <v>9795185.0</v>
+      </c>
+      <c r="C43" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s" s="696">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G43" t="n" s="699">
+        <v>-0.024982259368366677</v>
+      </c>
+      <c r="H43" t="n" s="700">
+        <v>-0.06793102973322376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="693">
+        <v>10230.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C44" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s" s="696">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G44" t="n" s="699">
+        <v>-0.16159606382871694</v>
+      </c>
+      <c r="H44" t="n" s="700">
+        <v>0.8435005792766319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="702">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="730">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="730">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="726">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="731">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C6" t="n" s="732">
+        <v>-0.676470588235294</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="726">
+        <v>63</v>
+      </c>
+      <c r="B7" t="n" s="731">
+        <v>-0.676470588235294</v>
+      </c>
+      <c r="C7" t="n" s="732">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="750">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="750">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="746">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="751">
+        <v>1.3421772799999999E8</v>
+      </c>
+      <c r="C12" t="n" s="752">
+        <v>-1.8370630468110045</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="746">
+        <v>63</v>
+      </c>
+      <c r="B13" t="n" s="751">
+        <v>-1.8370630468110045</v>
+      </c>
+      <c r="C13" t="n" s="752">
+        <v>1.3421772799999999E8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="770">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="770">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="766">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="771">
+        <v>1.8488927466117675E-32</v>
+      </c>
+      <c r="C18" t="n" s="772">
+        <v>0.14007480154691637</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="766">
+        <v>63</v>
+      </c>
+      <c r="B19" t="n" s="771">
+        <v>0.14007480154691637</v>
+      </c>
+      <c r="C19" t="n" s="772">
+        <v>1.8488927466117675E-32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="776">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="790">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="790">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="790">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="786">
+        <v>64</v>
+      </c>
+      <c r="B24" t="n" s="791">
+        <v>-0.9606419796071463</v>
+      </c>
+      <c r="C24" t="n" s="792">
+        <v>-0.676470588235294</v>
+      </c>
+      <c r="D24" t="n" s="793">
+        <v>0.29953412894441445</v>
+      </c>
+      <c r="E24" t="n" s="794">
+        <v>0.14007480154691637</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="798">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="812">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="812">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="813">
+        <v>-0.06419279982804033</v>
+      </c>
+      <c r="B29" t="n" s="814">
+        <v>-0.7612403111650327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="813">
+        <v>-0.12975245830274829</v>
+      </c>
+      <c r="B30" t="n" s="814">
+        <v>0.37434421836439774</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="813">
+        <v>-0.12975245830274829</v>
+      </c>
+      <c r="B31" t="n" s="814">
+        <v>-0.2376160787615909</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="813">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="B32" t="n" s="814">
+        <v>-0.7612403111650327</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="813">
+        <v>-0.06899602363501679</v>
+      </c>
+      <c r="B33" t="n" s="814">
+        <v>0.22500798859924587</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="813">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="B34" t="n" s="814">
+        <v>-0.07817697892033863</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="818">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="832">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="832">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="832">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="832">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="832">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="832">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="832">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="832">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="833">
         <v>10174.0</v>
       </c>
-      <c r="B44" t="n" s="554">
+      <c r="B39" t="n" s="834">
         <v>1.0276852E7</v>
       </c>
-      <c r="C44" t="s" s="555">
+      <c r="C39" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="836">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s" s="837">
         <v>44</v>
       </c>
-      <c r="D44" t="s" s="556">
-        <v>45</v>
-      </c>
-      <c r="E44" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F44" t="s" s="558">
-        <v>50</v>
-      </c>
-      <c r="G44" t="n" s="559">
-        <v>-0.04972506425419933</v>
-      </c>
-      <c r="H44" t="n" s="560">
-        <v>-0.7610013582586588</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="553">
-        <v>10175.0</v>
-      </c>
-      <c r="B45" t="n" s="554">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C45" t="s" s="555">
+      <c r="F39" t="s" s="838">
+        <v>29</v>
+      </c>
+      <c r="G39" t="n" s="839">
+        <v>-0.06419279982804033</v>
+      </c>
+      <c r="H39" t="n" s="840">
+        <v>-0.7612403111650327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="833">
+        <v>10179.0</v>
+      </c>
+      <c r="B40" t="n" s="834">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C40" t="s" s="835">
         <v>21</v>
       </c>
-      <c r="D45" t="s" s="556">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F45" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G45" t="n" s="559">
-        <v>0.16957045618326988</v>
-      </c>
-      <c r="H45" t="n" s="560">
-        <v>1.0738015345492409</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="553">
-        <v>10176.0</v>
-      </c>
-      <c r="B46" t="n" s="554">
-        <v>1.0276949E7</v>
-      </c>
-      <c r="C46" t="s" s="555">
+      <c r="D40" t="s" s="836">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="838">
+        <v>29</v>
+      </c>
+      <c r="G40" t="n" s="839">
+        <v>-0.12975245830274829</v>
+      </c>
+      <c r="H40" t="n" s="840">
+        <v>0.37434421836439774</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="833">
+        <v>10191.0</v>
+      </c>
+      <c r="B41" t="n" s="834">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C41" t="s" s="835">
         <v>21</v>
       </c>
-      <c r="D46" t="s" s="556">
+      <c r="D41" t="s" s="836">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="838">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n" s="839">
+        <v>-0.12975245830274829</v>
+      </c>
+      <c r="H41" t="n" s="840">
+        <v>-0.2376160787615909</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="833">
+        <v>10219.0</v>
+      </c>
+      <c r="B42" t="n" s="834">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C42" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="836">
         <v>23</v>
       </c>
-      <c r="E46" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F46" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G46" t="n" s="559">
-        <v>0.056303131700413886</v>
-      </c>
-      <c r="H46" t="n" s="560">
-        <v>-0.40424579987926507</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="553">
-        <v>10179.0</v>
-      </c>
-      <c r="B47" t="n" s="554">
-        <v>1.0310759E7</v>
-      </c>
-      <c r="C47" t="s" s="555">
+      <c r="E42" t="s" s="837">
         <v>44</v>
       </c>
-      <c r="D47" t="s" s="556">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F47" t="s" s="558">
-        <v>50</v>
-      </c>
-      <c r="G47" t="n" s="559">
-        <v>-0.09871476844150755</v>
-      </c>
-      <c r="H47" t="n" s="560">
-        <v>0.37452986722275244</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="553">
-        <v>10188.0</v>
-      </c>
-      <c r="B48" t="n" s="554">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C48" t="s" s="555">
+      <c r="F42" t="s" s="838">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n" s="839">
+        <v>-0.01644788860766827</v>
+      </c>
+      <c r="H42" t="n" s="840">
+        <v>-0.7612403111650327</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="833">
+        <v>10227.0</v>
+      </c>
+      <c r="B43" t="n" s="834">
+        <v>9274382.0</v>
+      </c>
+      <c r="C43" t="s" s="835">
         <v>21</v>
       </c>
-      <c r="D48" t="s" s="556">
+      <c r="D43" t="s" s="836">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="838">
+        <v>29</v>
+      </c>
+      <c r="G43" t="n" s="839">
+        <v>-0.06899602363501679</v>
+      </c>
+      <c r="H43" t="n" s="840">
+        <v>0.22500798859924587</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="833">
+        <v>10231.0</v>
+      </c>
+      <c r="B44" t="n" s="834">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C44" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="836">
         <v>25</v>
       </c>
-      <c r="E48" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F48" t="s" s="558">
-        <v>35</v>
-      </c>
-      <c r="G48" t="n" s="559">
-        <v>0.1057289325304706</v>
-      </c>
-      <c r="H48" t="n" s="560">
-        <v>1.3365425573537562</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="553">
-        <v>10191.0</v>
-      </c>
-      <c r="B49" t="n" s="554">
-        <v>1.0276981E7</v>
-      </c>
-      <c r="C49" t="s" s="555">
+      <c r="E44" t="s" s="837">
         <v>44</v>
       </c>
-      <c r="D49" t="s" s="556">
-        <v>47</v>
-      </c>
-      <c r="E49" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F49" t="s" s="558">
-        <v>50</v>
-      </c>
-      <c r="G49" t="n" s="559">
-        <v>-0.10791832418840941</v>
-      </c>
-      <c r="H49" t="n" s="560">
-        <v>-0.2373747866878843</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="553">
-        <v>10216.0</v>
-      </c>
-      <c r="B50" t="n" s="554">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C50" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="556">
-        <v>28</v>
-      </c>
-      <c r="E50" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G50" t="n" s="559">
-        <v>0.013932201703524574</v>
-      </c>
-      <c r="H50" t="n" s="560">
-        <v>0.8667370141964829</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="553">
-        <v>10219.0</v>
-      </c>
-      <c r="B51" t="n" s="554">
-        <v>1.0276831E7</v>
-      </c>
-      <c r="C51" t="s" s="555">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s" s="556">
-        <v>48</v>
-      </c>
-      <c r="E51" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F51" t="s" s="558">
-        <v>50</v>
-      </c>
-      <c r="G51" t="n" s="559">
-        <v>-0.04705566070438302</v>
-      </c>
-      <c r="H51" t="n" s="560">
-        <v>-0.7610013582586588</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="553">
-        <v>10223.0</v>
-      </c>
-      <c r="B52" t="n" s="554">
-        <v>9795185.0</v>
-      </c>
-      <c r="C52" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="556">
-        <v>24</v>
-      </c>
-      <c r="E52" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F52" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G52" t="n" s="559">
-        <v>-0.023457684006790103</v>
-      </c>
-      <c r="H52" t="n" s="560">
-        <v>0.22520313271464246</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="553">
-        <v>10230.0</v>
-      </c>
-      <c r="B53" t="n" s="554">
-        <v>1.0351992E7</v>
-      </c>
-      <c r="C53" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="556">
-        <v>31</v>
-      </c>
-      <c r="E53" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F53" t="s" s="558">
-        <v>34</v>
-      </c>
-      <c r="G53" t="n" s="559">
-        <v>0.05532693638498046</v>
-      </c>
-      <c r="H53" t="n" s="560">
-        <v>0.07543408121130224</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="553">
-        <v>10231.0</v>
-      </c>
-      <c r="B54" t="n" s="554">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C54" t="s" s="555">
-        <v>44</v>
-      </c>
-      <c r="D54" t="s" s="556">
-        <v>49</v>
-      </c>
-      <c r="E54" t="s" s="557">
-        <v>32</v>
-      </c>
-      <c r="F54" t="s" s="558">
-        <v>50</v>
-      </c>
-      <c r="G54" t="n" s="559">
-        <v>-0.04935925715204929</v>
-      </c>
-      <c r="H54" t="n" s="560">
-        <v>-0.0779524653014125</v>
+      <c r="F44" t="s" s="838">
+        <v>29</v>
+      </c>
+      <c r="G44" t="n" s="839">
+        <v>-0.09113189471052305</v>
+      </c>
+      <c r="H44" t="n" s="840">
+        <v>-0.07817697892033863</v>
       </c>
     </row>
   </sheetData>

--- a/study03/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/study03/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="67">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -28,7 +28,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -58,10 +58,10 @@
     <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in w/o-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -109,7 +109,7 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Perceived Choice in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in Master using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
@@ -118,10 +118,10 @@
     <t>GiS/K-PrcvC</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Perceived Choice in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in Master</t>
   </si>
   <si>
     <t>ont-gamified</t>
@@ -160,7 +160,7 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in Master using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
@@ -169,13 +169,13 @@
     <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Effort/Importance in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Effort/Importance</t>
@@ -184,13 +184,13 @@
     <t>GiS/K-Eff/I</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Effort/Importance in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Effort/Importance in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Effort/Importance in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Attention in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Attention in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Attention</t>
@@ -199,13 +199,13 @@
     <t>GiS/K-Attnt</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Attention in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Attention in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Attention in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Attention in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Relevance</t>
@@ -214,10 +214,10 @@
     <t>GiS/K-Rlvnc</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
